--- a/Monthly_SEO_Metrics.xlsx
+++ b/Monthly_SEO_Metrics.xlsx
@@ -21,7 +21,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -51,8 +53,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,6 +616,76 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4/5/24</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4/5/24</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4/5/24</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4/5/24</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4/5/24</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4/5/24</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4/5/24</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>1758</v>
       </c>
     </row>
@@ -627,7 +700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B12"/>
+  <dimension ref="A2:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,6 +726,9 @@
           <t>https://www.turnkeyofficespace.com/taxonomy/term/4830</t>
         </is>
       </c>
+      <c r="B3" s="1" t="n">
+        <v>45386</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -660,6 +736,9 @@
           <t>https://blog.turnkeyofficespace.com/2017/04/03/smart-strategies-to-improve-employee-retention/</t>
         </is>
       </c>
+      <c r="B4" s="1" t="n">
+        <v>45385</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -667,6 +746,9 @@
           <t>https://blog.turnkeyofficespace.com/2017/10/16/be-prepared-for-these-business-growth-challenges/</t>
         </is>
       </c>
+      <c r="B5" s="1" t="n">
+        <v>45379</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -674,6 +756,9 @@
           <t>https://blog.turnkeyofficespace.com/2017/10/30/hiring-for-growth-how-to-find-people-who-add-maximum-value/</t>
         </is>
       </c>
+      <c r="B6" s="1" t="n">
+        <v>45378</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -681,6 +766,9 @@
           <t>https://blog.turnkeyofficespace.com/2017/10/02/its-time-to-take-marketing-your-business-seriously/</t>
         </is>
       </c>
+      <c r="B7" s="1" t="n">
+        <v>45361</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -688,6 +776,9 @@
           <t>https://blog.turnkeyofficespace.com/category/business/</t>
         </is>
       </c>
+      <c r="B8" s="1" t="n">
+        <v>45357</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -695,6 +786,9 @@
           <t>https://blog.turnkeyofficespace.com/2018/03/05/why-your-office-needs-a-third-space/</t>
         </is>
       </c>
+      <c r="B9" s="1" t="n">
+        <v>45357</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -702,6 +796,9 @@
           <t>https://blog.turnkeyofficespace.com/page/12/</t>
         </is>
       </c>
+      <c r="B10" s="1" t="n">
+        <v>45353</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -709,12 +806,568 @@
           <t>https://blog.turnkeyofficespace.com/2017/09/04/growing-your-company-through-partnerships-and-alliances/</t>
         </is>
       </c>
+      <c r="B11" s="1" t="n">
+        <v>45352</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
           <t>https://www.turnkeyofficespace.com/south-carolina/myrtle-beach/1000</t>
         </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45349</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/2016/12/26/how-physical-office-space-can-grow-your-business/</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45339</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/2016/11/14/12-common-office-leasing-mistakes-you-should-avoid/</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/2017/01/23/how-to-set-your-employees-up-for-success-in-your-new-offices/</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/comments/feed/</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/page/13/</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45326</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/2017/03/20/look-for-these-warning-signs-before-you-rent-an-office/</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/2017/08/07/dont-neglect-your-business-backend/</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/2017/02/20/coworking-spaces-the-way-of-the-future/</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45319</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.turnkeyofficespace.com/utah/salt-lake-city/1000</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.turnkeyofficespace.com/california/sacramento/corporate-way-sacramento-95831-0</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>http://blog.turnkeyofficespace.com/coworking-space-near-me</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.turnkeyofficespace.com/new-jersey/lakewood/1000</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.turnkeyofficespace.com/texas/san-antonio/1000</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/be-prepared-for-these-business-growth-challenges/</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>45305</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/page/2/</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45305</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/2017/12/11/childcare-in-a-coworking-space-heres-how-some-companies-are-making-it-work/</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>45303</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/startup-office-space</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/page/12/?page=1</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/page/10/?page=1</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/2017/08/21/the-pros-and-cons-of-bootstrapping-and-vc-funding/</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>45294</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/page/7/?page=1</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/childcare-in-a-coworking-space-heres-how-some-companies-are-making-it-work/</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/page/11/</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>45290</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.turnkeyofficespace.com/texas/plano/republic-drive-plano-75074</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>45284</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/2017/07/10/sales-are-you-ready-to-take-it-seriously/</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>45284</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.turnkeyofficespace.com/texas/dallas/maple-ave-dallas-75201</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/category/office-space</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>45276</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/the-best-apps-for-a-startup-office-space</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/blog/2017/05/01/hosting-meetings-without-wasting-everyones-time/?utm_content=buffer7e2c4&amp;utm_medium=social&amp;utm_source=plus.google.com&amp;utm_campaign=buffer</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/category/productivity</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/category/employees</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/category/office-space-rental</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/partnerships-alliances-the-turnkey-approach-to-growing-your-company</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/black-</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/turnkey-strategy-for-facing-business-growth-challenges</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>45275</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/2017/01/09/designing-a-productive-office-environment/</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/page/10/</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.turnkeyofficespace.com/louisiana/winterthur/sdfsdf</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>45267</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/page/3/</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>45267</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/category/office-space-rental/</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>45266</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>http://www.turnkeyofficespace.com/content/von-karman-avenue-irvine-92612</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>45262</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/page/11/?page=1</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/2017/03/06/must-know-productivity-techniques-for-you-and-your-team/</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/2018/01/08/check-out-these-new-coworking-spaces/</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/fully-furnished-office-for-rent/</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>45251</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/page/2/?page=1</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>http://blog.turnkeyofficespace.com/furnished-office-space</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/category/productivity/</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/page/4/</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/category/uncategorized/</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/2017/07/24/systems-process-and-automation-stop-working-for-your-own-business/</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>45229</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/2017/05/01/hosting-meetings-without-wasting-everyones-time/</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>45227</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/a-turnkey-solution-to-hiring-people-who-add-maximum-value</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/growing-your-company-through-partnerships-and-alliances/</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://blog.turnkeyofficespace.com/should-you-try-for-a-spot-in-a-business-incubator-the-pros-and-cons/</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>45209</v>
       </c>
     </row>
   </sheetData>
@@ -728,7 +1381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B9"/>
+  <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,71 +1399,6 @@
         <is>
           <t>Clicks</t>
         </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>turnkey office space</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>362</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>we hear it all the time</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +1443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,6 +1603,16 @@
         <v>1510</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1510</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
